--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,23 +838,25 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1036,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1106,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,28 +1121,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1176,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,37 +1526,49 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
         <v>600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1000</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
       </c>
       <c r="J41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="3">
+        <v>700</v>
+      </c>
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1583,16 +1763,22 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1605,23 +1791,29 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1841,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1658,57 +1856,69 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1718,26 +1928,32 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1747,11 +1963,11 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1765,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,17 +2103,17 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>500</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1977,10 +2239,10 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -1994,8 +2256,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,66 +2291,84 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-62200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-62100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-62000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-61500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-61100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,11 +3043,11 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2952,22 +3412,28 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,22 +3581,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -3124,8 +3616,14 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3651,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3162,24 +3666,30 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,26 +853,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
       </c>
       <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,22 +1018,23 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1016,19 +1043,22 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,10 +1069,10 @@
         <v>-800</v>
       </c>
       <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1051,19 +1081,22 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1146,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1124,10 +1161,10 @@
         <v>-800</v>
       </c>
       <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1136,42 +1173,45 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1182,22 +1222,25 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
       </c>
       <c r="F23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1206,19 +1249,22 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,22 +1336,25 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
       </c>
       <c r="F26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1311,33 +1363,36 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
       </c>
       <c r="F27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1346,19 +1401,22 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,22 +1602,25 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
         <v>-800</v>
       </c>
       <c r="F33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1556,19 +1629,22 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,22 +1678,25 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
         <v>-800</v>
       </c>
       <c r="F35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -1626,59 +1705,65 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,16 +1793,17 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
@@ -1725,30 +1812,33 @@
         <v>400</v>
       </c>
       <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1769,21 +1859,24 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1797,8 +1890,8 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -1806,14 +1899,17 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1856,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -1877,48 +1976,54 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>500</v>
+      </c>
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1934,8 +2039,8 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1944,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1969,8 +2077,8 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,22 +2209,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2119,16 +2239,19 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>500</v>
       </c>
       <c r="F54" s="3">
         <v>500</v>
       </c>
       <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2245,7 +2376,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,34 +2431,37 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -2332,48 +2469,54 @@
       <c r="M59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>900</v>
       </c>
       <c r="F66" s="3">
         <v>900</v>
       </c>
       <c r="G66" s="3">
+        <v>900</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
       </c>
       <c r="G76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,62 +3131,68 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
         <v>-800</v>
       </c>
       <c r="F81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -3006,19 +3201,22 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3049,8 +3248,8 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3251,34 +3468,37 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,34 +3636,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,16 +3830,19 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3604,8 +3850,8 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
       </c>
       <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,20 +877,20 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
       </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,25 +1045,26 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1046,19 +1073,22 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,16 +1096,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
       </c>
       <c r="G18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1084,19 +1114,22 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1183,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,16 +1195,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F21" s="3">
         <v>-800</v>
       </c>
       <c r="G21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
@@ -1176,27 +1213,30 @@
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1213,8 +1253,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1225,8 +1265,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1234,16 +1277,16 @@
         <v>-1000</v>
       </c>
       <c r="E23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="F23" s="3">
         <v>-800</v>
       </c>
       <c r="G23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1252,19 +1295,22 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1388,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,16 +1400,16 @@
         <v>-1000</v>
       </c>
       <c r="E26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="F26" s="3">
         <v>-800</v>
       </c>
       <c r="G26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1366,19 +1418,22 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1386,16 +1441,16 @@
         <v>-1000</v>
       </c>
       <c r="E27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="F27" s="3">
         <v>-800</v>
       </c>
       <c r="G27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1404,19 +1459,22 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,8 +1675,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1614,16 +1687,16 @@
         <v>-1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="F33" s="3">
         <v>-800</v>
       </c>
       <c r="G33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -1632,19 +1705,22 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1757,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1690,16 +1769,16 @@
         <v>-1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="F35" s="3">
         <v>-800</v>
       </c>
       <c r="G35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -1708,62 +1787,68 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,19 +1880,20 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>400</v>
@@ -1815,33 +1902,36 @@
         <v>400</v>
       </c>
       <c r="I41" s="3">
+        <v>400</v>
+      </c>
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1862,24 +1952,27 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1893,8 +1986,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -1902,14 +1995,17 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,31 +2042,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -1979,51 +2078,57 @@
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>500</v>
       </c>
       <c r="G46" s="3">
         <v>500</v>
       </c>
       <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2042,8 +2147,8 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2052,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2080,8 +2188,8 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2242,16 +2362,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>500</v>
       </c>
       <c r="G54" s="3">
         <v>500</v>
       </c>
       <c r="H54" s="3">
+        <v>500</v>
+      </c>
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2379,7 +2510,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,37 +2568,40 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -2472,55 +2609,61 @@
       <c r="N59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
       </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>900</v>
       </c>
       <c r="G66" s="3">
         <v>900</v>
       </c>
       <c r="H66" s="3">
+        <v>900</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-61100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
       </c>
       <c r="H76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3323,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3186,16 +3381,16 @@
         <v>-1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="F81" s="3">
         <v>-800</v>
       </c>
       <c r="G81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -3204,19 +3399,22 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,8 +3450,8 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3471,34 +3688,37 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,34 +3869,37 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,19 +4076,22 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3853,8 +4099,8 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-200</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,20 +893,20 @@
         <v>400</v>
       </c>
       <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,28 +1071,29 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1076,19 +1102,22 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,19 +1125,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-800</v>
       </c>
       <c r="G18" s="3">
         <v>-800</v>
       </c>
       <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1117,19 +1146,22 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,19 +1231,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-800</v>
       </c>
       <c r="G21" s="3">
         <v>-800</v>
       </c>
       <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
@@ -1216,30 +1252,33 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1256,8 +1295,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1268,28 +1307,31 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
         <v>-1000</v>
       </c>
       <c r="F23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="G23" s="3">
         <v>-800</v>
       </c>
       <c r="H23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1298,19 +1340,22 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,28 +1439,31 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
         <v>-1000</v>
       </c>
       <c r="F26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="G26" s="3">
         <v>-800</v>
       </c>
       <c r="H26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1421,39 +1472,42 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
         <v>-1000</v>
       </c>
       <c r="F27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="G27" s="3">
         <v>-800</v>
       </c>
       <c r="H27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1462,19 +1516,22 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,28 +1747,31 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
         <v>-1000</v>
       </c>
       <c r="F33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="G33" s="3">
         <v>-800</v>
       </c>
       <c r="H33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1708,19 +1780,22 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,28 +1835,31 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
         <v>-1000</v>
       </c>
       <c r="F35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="G35" s="3">
         <v>-800</v>
       </c>
       <c r="H35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -1790,65 +1868,71 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,22 +1966,23 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
@@ -1905,36 +1991,39 @@
         <v>400</v>
       </c>
       <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1955,27 +2044,30 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1989,8 +2081,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -1998,14 +2090,17 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,34 +2140,37 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -2081,54 +2179,60 @@
         <v>300</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
       </c>
       <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2150,8 +2254,8 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2160,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2191,8 +2298,8 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2365,16 +2484,19 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>500</v>
       </c>
       <c r="H54" s="3">
         <v>500</v>
       </c>
       <c r="I54" s="3">
+        <v>500</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2513,7 +2643,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,40 +2704,43 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -2612,49 +2748,55 @@
       <c r="O59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>900</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
       </c>
       <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2662,11 +2804,11 @@
         <v>700</v>
       </c>
       <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>900</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
       </c>
       <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-61500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-61100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,74 +3514,80 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
         <v>-1000</v>
       </c>
       <c r="F81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="G81" s="3">
         <v>-800</v>
       </c>
       <c r="H81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -3402,19 +3596,22 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,8 +3651,8 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3691,34 +3907,37 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3872,34 +4101,37 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,22 +4321,25 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4102,8 +4347,8 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4170,36 +4421,39 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,13 +894,14 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
@@ -896,20 +910,20 @@
         <v>400</v>
       </c>
       <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
       </c>
       <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,31 +1098,32 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1105,19 +1132,22 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,22 +1155,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-800</v>
       </c>
       <c r="H18" s="3">
         <v>-800</v>
       </c>
       <c r="I18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1149,19 +1179,22 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,22 +1268,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-800</v>
       </c>
       <c r="H21" s="3">
         <v>-800</v>
       </c>
       <c r="I21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1255,19 +1292,22 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1298,8 +1338,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,31 +1350,34 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1000</v>
       </c>
       <c r="F23" s="3">
         <v>-1000</v>
       </c>
       <c r="G23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="H23" s="3">
         <v>-800</v>
       </c>
       <c r="I23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1343,19 +1386,22 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,31 +1491,34 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1000</v>
       </c>
       <c r="F26" s="3">
         <v>-1000</v>
       </c>
       <c r="G26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="H26" s="3">
         <v>-800</v>
       </c>
       <c r="I26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1475,42 +1527,45 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1000</v>
       </c>
       <c r="F27" s="3">
         <v>-1000</v>
       </c>
       <c r="G27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="H27" s="3">
         <v>-800</v>
       </c>
       <c r="I27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1519,19 +1574,22 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,31 +1820,34 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1000</v>
       </c>
       <c r="F33" s="3">
         <v>-1000</v>
       </c>
       <c r="G33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="H33" s="3">
         <v>-800</v>
       </c>
       <c r="I33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1783,19 +1856,22 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,31 +1914,34 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1000</v>
       </c>
       <c r="F35" s="3">
         <v>-1000</v>
       </c>
       <c r="G35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="H35" s="3">
         <v>-800</v>
       </c>
       <c r="I35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1871,68 +1950,74 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,25 +2053,26 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
@@ -1994,39 +2081,42 @@
         <v>400</v>
       </c>
       <c r="K41" s="3">
+        <v>400</v>
+      </c>
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2047,30 +2137,33 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2084,8 +2177,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2093,14 +2186,17 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,28 +2251,28 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -2182,83 +2281,89 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2267,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
@@ -2275,34 +2380,37 @@
       <c r="P47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2487,16 +2607,19 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>500</v>
       </c>
       <c r="I54" s="3">
         <v>500</v>
       </c>
       <c r="J54" s="3">
+        <v>500</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2646,7 +2777,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,43 +2841,46 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -2751,67 +2888,73 @@
       <c r="P59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
       </c>
       <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
       </c>
       <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>900</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
       </c>
       <c r="J66" s="3">
+        <v>900</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-61500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-61100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
       </c>
       <c r="J76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,80 +3706,86 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1000</v>
       </c>
       <c r="F81" s="3">
         <v>-1000</v>
       </c>
       <c r="G81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="H81" s="3">
         <v>-800</v>
       </c>
       <c r="I81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -3599,19 +3794,22 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,34 +3826,35 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3910,34 +4127,37 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4104,34 +4334,37 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,25 +4567,28 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4350,8 +4596,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,7 +918,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
@@ -913,20 +927,20 @@
         <v>400</v>
       </c>
       <c r="H12" s="3">
+        <v>400</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>300</v>
       </c>
       <c r="J12" s="3">
         <v>300</v>
       </c>
       <c r="K12" s="3">
+        <v>300</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,34 +1125,35 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1135,19 +1162,22 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,25 +1185,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-800</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
       </c>
       <c r="J18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1182,19 +1212,22 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,25 +1305,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-800</v>
       </c>
       <c r="I21" s="3">
         <v>-800</v>
       </c>
       <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
@@ -1295,19 +1332,22 @@
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1318,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1341,8 +1381,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1353,34 +1393,37 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1000</v>
       </c>
       <c r="G23" s="3">
         <v>-1000</v>
       </c>
       <c r="H23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="I23" s="3">
         <v>-800</v>
       </c>
       <c r="J23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1389,19 +1432,22 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,34 +1543,37 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1000</v>
       </c>
       <c r="G26" s="3">
         <v>-1000</v>
       </c>
       <c r="H26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="I26" s="3">
         <v>-800</v>
       </c>
       <c r="J26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1530,45 +1582,48 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1000</v>
       </c>
       <c r="G27" s="3">
         <v>-1000</v>
       </c>
       <c r="H27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-800</v>
       </c>
       <c r="J27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1577,19 +1632,22 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,34 +1893,37 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1000</v>
       </c>
       <c r="G33" s="3">
         <v>-1000</v>
       </c>
       <c r="H33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="I33" s="3">
         <v>-800</v>
       </c>
       <c r="J33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1859,19 +1932,22 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,34 +1993,37 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1000</v>
       </c>
       <c r="G35" s="3">
         <v>-1000</v>
       </c>
       <c r="H35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="I35" s="3">
         <v>-800</v>
       </c>
       <c r="J35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -1953,71 +2032,77 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,28 +2140,29 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>400</v>
       </c>
       <c r="J41" s="3">
         <v>400</v>
@@ -2084,42 +2171,45 @@
         <v>400</v>
       </c>
       <c r="L41" s="3">
+        <v>400</v>
+      </c>
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2140,33 +2230,36 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2180,8 +2273,8 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2189,14 +2282,17 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,28 +2353,28 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -2284,60 +2383,66 @@
         <v>300</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2362,11 +2467,11 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2375,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2409,11 +2517,11 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2610,16 +2730,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>500</v>
       </c>
       <c r="J54" s="3">
         <v>500</v>
       </c>
       <c r="K54" s="3">
+        <v>500</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2780,7 +2911,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,46 +2978,49 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -2891,73 +3028,79 @@
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>900</v>
       </c>
       <c r="J66" s="3">
         <v>900</v>
       </c>
       <c r="K66" s="3">
+        <v>900</v>
+      </c>
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-61500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
       </c>
       <c r="K76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,86 +3898,92 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1000</v>
       </c>
       <c r="G81" s="3">
         <v>-1000</v>
       </c>
       <c r="H81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="I81" s="3">
         <v>-800</v>
       </c>
       <c r="J81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -3797,19 +3992,22 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,11 +4052,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4130,34 +4347,37 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4337,34 +4567,37 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,28 +4813,31 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4599,8 +4845,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,19 +922,20 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
@@ -930,20 +944,20 @@
         <v>400</v>
       </c>
       <c r="I12" s="3">
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
       </c>
       <c r="L12" s="3">
+        <v>300</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,37 +1152,38 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
+        <v>800</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1165,19 +1192,22 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,28 +1215,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-800</v>
       </c>
       <c r="J18" s="3">
         <v>-800</v>
       </c>
       <c r="K18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1215,19 +1245,22 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,28 +1342,28 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-800</v>
       </c>
       <c r="J21" s="3">
         <v>-800</v>
       </c>
       <c r="K21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L21" s="3">
         <v>-600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1335,19 +1372,22 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1361,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1384,8 +1424,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1396,37 +1436,40 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1000</v>
       </c>
       <c r="H23" s="3">
         <v>-1000</v>
       </c>
       <c r="I23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="J23" s="3">
         <v>-800</v>
       </c>
       <c r="K23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1435,19 +1478,22 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,37 +1595,40 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1000</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="J26" s="3">
         <v>-800</v>
       </c>
       <c r="K26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1585,48 +1637,51 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1000</v>
       </c>
       <c r="H27" s="3">
         <v>-1000</v>
       </c>
       <c r="I27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="J27" s="3">
         <v>-800</v>
       </c>
       <c r="K27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1635,19 +1690,22 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,37 +1966,40 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1000</v>
       </c>
       <c r="H33" s="3">
         <v>-1000</v>
       </c>
       <c r="I33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="J33" s="3">
         <v>-800</v>
       </c>
       <c r="K33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -1935,19 +2008,22 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,37 +2072,40 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1000</v>
       </c>
       <c r="H35" s="3">
         <v>-1000</v>
       </c>
       <c r="I35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="J35" s="3">
         <v>-800</v>
       </c>
       <c r="K35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2035,74 +2114,80 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,31 +2227,32 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>400</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
@@ -2174,25 +2261,28 @@
         <v>400</v>
       </c>
       <c r="M41" s="3">
+        <v>400</v>
+      </c>
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2202,17 +2292,17 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2233,16 +2323,19 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2252,17 +2345,17 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2276,8 +2369,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2285,14 +2378,17 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2356,28 +2455,28 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
@@ -2386,63 +2485,69 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>500</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2470,11 +2575,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2483,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2520,11 +2628,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2733,16 +2853,19 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>500</v>
       </c>
       <c r="K54" s="3">
         <v>500</v>
       </c>
       <c r="L54" s="3">
+        <v>500</v>
+      </c>
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2914,7 +3045,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,49 +3115,52 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3031,58 +3168,64 @@
       <c r="R59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3090,20 +3233,20 @@
         <v>1200</v>
       </c>
       <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
       </c>
       <c r="H61" s="3">
+        <v>700</v>
+      </c>
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>900</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
       <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,92 +4090,98 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1000</v>
       </c>
       <c r="H81" s="3">
         <v>-1000</v>
       </c>
       <c r="I81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="J81" s="3">
         <v>-800</v>
       </c>
       <c r="K81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -3995,19 +4190,22 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4055,11 +4254,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4350,34 +4567,37 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,13 +4773,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4570,34 +4800,37 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,22 +5071,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4848,8 +5094,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,13 +945,13 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
@@ -947,20 +960,20 @@
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
       </c>
       <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1162,31 +1188,31 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
       </c>
       <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1195,19 +1221,22 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,31 +1244,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-800</v>
       </c>
       <c r="K18" s="3">
         <v>-800</v>
       </c>
       <c r="L18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1248,19 +1277,22 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1333,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,31 +1378,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-800</v>
       </c>
       <c r="K21" s="3">
         <v>-800</v>
       </c>
       <c r="L21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1375,19 +1411,22 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1404,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1427,8 +1466,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1439,40 +1478,43 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1000</v>
       </c>
       <c r="I23" s="3">
         <v>-1000</v>
       </c>
       <c r="J23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="K23" s="3">
         <v>-800</v>
       </c>
       <c r="L23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1481,19 +1523,22 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,40 +1646,43 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1000</v>
       </c>
       <c r="I26" s="3">
         <v>-1000</v>
       </c>
       <c r="J26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="K26" s="3">
         <v>-800</v>
       </c>
       <c r="L26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1640,51 +1691,54 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-1000</v>
       </c>
       <c r="J27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="K27" s="3">
         <v>-800</v>
       </c>
       <c r="L27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1693,19 +1747,22 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1969,40 +2038,43 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1000</v>
       </c>
       <c r="I33" s="3">
         <v>-1000</v>
       </c>
       <c r="J33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="K33" s="3">
         <v>-800</v>
       </c>
       <c r="L33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M33" s="3">
         <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2011,19 +2083,22 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,40 +2150,43 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1000</v>
       </c>
       <c r="I35" s="3">
         <v>-1000</v>
       </c>
       <c r="J35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="K35" s="3">
         <v>-800</v>
       </c>
       <c r="L35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M35" s="3">
         <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2117,77 +2195,83 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,34 +2313,35 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
@@ -2264,45 +2350,48 @@
         <v>400</v>
       </c>
       <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2326,16 +2415,19 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,17 +2440,17 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2372,8 +2464,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2381,14 +2473,17 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2458,28 +2556,28 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -2488,66 +2586,72 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2578,11 +2682,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2591,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>100</v>
@@ -2599,8 +2703,11 @@
       <c r="S47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2631,11 +2738,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2856,16 +2975,19 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>500</v>
       </c>
       <c r="L54" s="3">
         <v>500</v>
       </c>
       <c r="M54" s="3">
+        <v>500</v>
+      </c>
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3048,7 +3178,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,52 +3251,55 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -3171,61 +3307,67 @@
       <c r="S59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
       </c>
       <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3236,20 +3378,20 @@
         <v>1200</v>
       </c>
       <c r="F61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G61" s="3">
         <v>1100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>700</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
       </c>
       <c r="I61" s="3">
+        <v>700</v>
+      </c>
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>900</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
       </c>
       <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-61100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,98 +4281,104 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1000</v>
       </c>
       <c r="I81" s="3">
         <v>-1000</v>
       </c>
       <c r="J81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="K81" s="3">
         <v>-800</v>
       </c>
       <c r="L81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M81" s="3">
         <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -4193,19 +4387,22 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4257,11 +4455,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4570,34 +4786,37 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,17 +5002,20 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4803,34 +5032,37 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5074,22 +5319,22 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5097,8 +5342,8 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-200</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,13 +962,13 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
@@ -963,20 +977,20 @@
         <v>400</v>
       </c>
       <c r="K12" s="3">
+        <v>400</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>300</v>
       </c>
       <c r="N12" s="3">
+        <v>300</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,31 +1218,31 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1224,19 +1251,22 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,31 +1277,31 @@
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-800</v>
       </c>
       <c r="L18" s="3">
         <v>-800</v>
       </c>
       <c r="M18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1280,19 +1310,22 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,11 +1356,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,34 +1415,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-800</v>
       </c>
       <c r="L21" s="3">
         <v>-800</v>
       </c>
       <c r="M21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1414,19 +1451,22 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1446,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1469,8 +1509,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,43 +1521,46 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1000</v>
       </c>
       <c r="J23" s="3">
         <v>-1000</v>
       </c>
       <c r="K23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="L23" s="3">
         <v>-800</v>
       </c>
       <c r="M23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1526,19 +1569,22 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,43 +1698,46 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1000</v>
       </c>
       <c r="J26" s="3">
         <v>-1000</v>
       </c>
       <c r="K26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="L26" s="3">
         <v>-800</v>
       </c>
       <c r="M26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1694,54 +1746,57 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1000</v>
       </c>
       <c r="J27" s="3">
         <v>-1000</v>
       </c>
       <c r="K27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="L27" s="3">
         <v>-800</v>
       </c>
       <c r="M27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1750,19 +1805,22 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,11 +2064,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2041,43 +2111,46 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1000</v>
       </c>
       <c r="J33" s="3">
         <v>-1000</v>
       </c>
       <c r="K33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="L33" s="3">
         <v>-800</v>
       </c>
       <c r="M33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2086,19 +2159,22 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,43 +2229,46 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1000</v>
       </c>
       <c r="J35" s="3">
         <v>-1000</v>
       </c>
       <c r="K35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="L35" s="3">
         <v>-800</v>
       </c>
       <c r="M35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2198,80 +2277,86 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,37 +2400,38 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
@@ -2353,25 +2440,28 @@
         <v>400</v>
       </c>
       <c r="O41" s="3">
+        <v>400</v>
+      </c>
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2418,42 +2508,45 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2467,8 +2560,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2476,14 +2569,17 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2559,28 +2658,28 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
@@ -2589,69 +2688,75 @@
         <v>300</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2685,11 +2790,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2698,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>100</v>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2741,11 +2849,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2978,16 +3098,19 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>500</v>
       </c>
       <c r="M54" s="3">
         <v>500</v>
       </c>
       <c r="N54" s="3">
+        <v>500</v>
+      </c>
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3181,7 +3312,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,55 +3388,58 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3310,69 +3447,75 @@
       <c r="T59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
         <v>1200</v>
@@ -3381,20 +3524,20 @@
         <v>1200</v>
       </c>
       <c r="G61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H61" s="3">
         <v>1100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>700</v>
       </c>
       <c r="I61" s="3">
         <v>700</v>
       </c>
       <c r="J61" s="3">
+        <v>700</v>
+      </c>
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-62100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-62000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-61500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-61100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
       </c>
       <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,104 +4473,110 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1000</v>
       </c>
       <c r="J81" s="3">
         <v>-1000</v>
       </c>
       <c r="K81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="L81" s="3">
         <v>-800</v>
       </c>
       <c r="M81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4390,19 +4585,22 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4458,11 +4657,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4789,34 +5006,37 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,20 +5232,23 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5035,34 +5265,37 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5322,22 +5568,22 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5345,8 +5591,8 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
       </c>
       <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,13 +963,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -965,13 +979,13 @@
         <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
@@ -980,20 +994,20 @@
         <v>400</v>
       </c>
       <c r="L12" s="3">
+        <v>400</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
       </c>
       <c r="O12" s="3">
+        <v>300</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,13 +1232,14 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1221,31 +1248,31 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1254,19 +1281,22 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,31 +1310,31 @@
         <v>-500</v>
       </c>
       <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
       </c>
       <c r="M18" s="3">
         <v>-800</v>
       </c>
       <c r="N18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1313,19 +1343,22 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,14 +1390,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,37 +1452,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-800</v>
       </c>
       <c r="M21" s="3">
         <v>-800</v>
       </c>
       <c r="N21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O21" s="3">
         <v>-600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
@@ -1454,19 +1491,22 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1489,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1512,8 +1552,8 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1524,46 +1564,49 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1000</v>
       </c>
       <c r="K23" s="3">
         <v>-1000</v>
       </c>
       <c r="L23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="M23" s="3">
         <v>-800</v>
       </c>
       <c r="N23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1572,19 +1615,22 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,46 +1750,49 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1000</v>
       </c>
       <c r="K26" s="3">
         <v>-1000</v>
       </c>
       <c r="L26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="M26" s="3">
         <v>-800</v>
       </c>
       <c r="N26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1749,57 +1801,60 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1000</v>
       </c>
       <c r="K27" s="3">
         <v>-1000</v>
       </c>
       <c r="L27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="M27" s="3">
         <v>-800</v>
       </c>
       <c r="N27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1808,19 +1863,22 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,14 +2134,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2114,46 +2184,49 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1000</v>
       </c>
       <c r="K33" s="3">
         <v>-1000</v>
       </c>
       <c r="L33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="M33" s="3">
         <v>-800</v>
       </c>
       <c r="N33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O33" s="3">
         <v>-600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2162,19 +2235,22 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,46 +2308,49 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1000</v>
       </c>
       <c r="K35" s="3">
         <v>-1000</v>
       </c>
       <c r="L35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="M35" s="3">
         <v>-800</v>
       </c>
       <c r="N35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O35" s="3">
         <v>-600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2280,83 +2359,89 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,40 +2487,41 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
@@ -2443,25 +2530,28 @@
         <v>400</v>
       </c>
       <c r="P41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2511,16 +2601,19 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2545,11 +2638,11 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2563,8 +2656,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2572,14 +2665,17 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2661,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
@@ -2691,72 +2790,78 @@
         <v>300</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2793,11 +2898,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2806,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2852,11 +2960,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3101,16 +3221,19 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>500</v>
       </c>
       <c r="N54" s="3">
         <v>500</v>
       </c>
       <c r="O54" s="3">
+        <v>500</v>
+      </c>
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3315,7 +3446,7 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,58 +3525,61 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
@@ -3450,67 +3587,73 @@
       <c r="U59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
       </c>
       <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,7 +3661,7 @@
         <v>1300</v>
       </c>
       <c r="E61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F61" s="3">
         <v>1200</v>
@@ -3527,20 +3670,20 @@
         <v>1200</v>
       </c>
       <c r="H61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I61" s="3">
         <v>1100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
       </c>
       <c r="K61" s="3">
+        <v>700</v>
+      </c>
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>900</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
       </c>
       <c r="O66" s="3">
+        <v>900</v>
+      </c>
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4131,58 +4305,61 @@
         <v>-7300</v>
       </c>
       <c r="E72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-62200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-62100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-62000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-61500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-61100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,58 +4553,61 @@
         <v>-5300</v>
       </c>
       <c r="E76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
       </c>
       <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,110 +4665,116 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1000</v>
       </c>
       <c r="K81" s="3">
         <v>-1000</v>
       </c>
       <c r="L81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="M81" s="3">
         <v>-800</v>
       </c>
       <c r="N81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O81" s="3">
         <v>-600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4588,19 +4783,22 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4660,11 +4859,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,13 +5190,16 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -5009,34 +5226,37 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
       <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,23 +5462,26 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5268,34 +5498,37 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5571,22 +5817,22 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5594,8 +5840,8 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-200</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-200</v>
       </c>
       <c r="Q102" s="3">
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CPMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>CPMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44165</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44074</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43982</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43890</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43799</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43708</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43616</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,7 +987,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -982,13 +996,13 @@
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
       </c>
       <c r="J12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
@@ -997,20 +1011,20 @@
         <v>400</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>300</v>
       </c>
       <c r="O12" s="3">
         <v>300</v>
       </c>
       <c r="P12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,16 +1259,17 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -1251,31 +1278,31 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1284,19 +1311,22 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
@@ -1313,31 +1343,31 @@
         <v>-500</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-800</v>
       </c>
       <c r="N18" s="3">
         <v>-800</v>
       </c>
       <c r="O18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1346,19 +1376,22 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,17 +1424,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1477,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,40 +1489,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-800</v>
       </c>
       <c r="N21" s="3">
         <v>-800</v>
       </c>
       <c r="O21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P21" s="3">
         <v>-600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1494,19 +1531,22 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-200</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1532,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1555,8 +1595,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1567,49 +1607,52 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1000</v>
       </c>
       <c r="L23" s="3">
         <v>-1000</v>
       </c>
       <c r="M23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="N23" s="3">
         <v>-800</v>
       </c>
       <c r="O23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1618,19 +1661,22 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,49 +1802,52 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1000</v>
       </c>
       <c r="L26" s="3">
         <v>-1000</v>
       </c>
       <c r="M26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="N26" s="3">
         <v>-800</v>
       </c>
       <c r="O26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1804,60 +1856,63 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1000</v>
       </c>
       <c r="L27" s="3">
         <v>-1000</v>
       </c>
       <c r="M27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="N27" s="3">
         <v>-800</v>
       </c>
       <c r="O27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1866,19 +1921,22 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,17 +2204,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2187,49 +2257,52 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1000</v>
       </c>
       <c r="L33" s="3">
         <v>-1000</v>
       </c>
       <c r="M33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="N33" s="3">
         <v>-800</v>
       </c>
       <c r="O33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2238,19 +2311,22 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,49 +2387,52 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1000</v>
       </c>
       <c r="L35" s="3">
         <v>-1000</v>
       </c>
       <c r="M35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="N35" s="3">
         <v>-800</v>
       </c>
       <c r="O35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2362,86 +2441,92 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44165</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44074</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43982</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43890</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43799</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43708</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43616</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,43 +2574,44 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
@@ -2533,25 +2620,28 @@
         <v>400</v>
       </c>
       <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2604,16 +2694,19 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2641,11 +2734,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2659,8 +2752,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2668,14 +2761,17 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2763,28 +2862,28 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>300</v>
@@ -2793,75 +2892,81 @@
         <v>300</v>
       </c>
       <c r="U45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>500</v>
       </c>
       <c r="O46" s="3">
         <v>500</v>
       </c>
       <c r="P46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2901,11 +3006,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2914,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>100</v>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2963,11 +3071,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3224,16 +3344,19 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>500</v>
       </c>
       <c r="O54" s="3">
         <v>500</v>
       </c>
       <c r="P54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3449,7 +3580,7 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,61 +3662,64 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
@@ -3590,70 +3727,76 @@
       <c r="V59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>900</v>
       </c>
       <c r="O60" s="3">
         <v>900</v>
       </c>
       <c r="P60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3664,7 +3807,7 @@
         <v>1300</v>
       </c>
       <c r="F61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G61" s="3">
         <v>1200</v>
@@ -3673,20 +3816,20 @@
         <v>1200</v>
       </c>
       <c r="I61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>700</v>
       </c>
       <c r="L61" s="3">
+        <v>700</v>
+      </c>
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>900</v>
       </c>
       <c r="O66" s="3">
         <v>900</v>
       </c>
       <c r="P66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7300</v>
+        <v>-7600</v>
       </c>
       <c r="E72" s="3">
         <v>-7300</v>
       </c>
       <c r="F72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-6900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-62200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-62100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-62000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-61500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-61100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-60900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5300</v>
+        <v>-5600</v>
       </c>
       <c r="E76" s="3">
         <v>-5300</v>
       </c>
       <c r="F76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,116 +4857,122 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44165</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44074</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43982</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43890</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43799</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43708</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43616</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1000</v>
       </c>
       <c r="L81" s="3">
         <v>-1000</v>
       </c>
       <c r="M81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="N81" s="3">
         <v>-800</v>
       </c>
       <c r="O81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4786,19 +4981,22 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4862,11 +5061,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5202,7 +5419,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -5229,34 +5446,37 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,26 +5692,29 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5501,34 +5731,37 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5820,22 +6066,22 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5843,8 +6089,8 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
       </c>
       <c r="R102" s="3">
         <v>-200</v>
       </c>
       <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>
